--- a/Test Open Xml/testdata/testsetrowvalues_dt.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_dt.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Radf10438e3bf47dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Ra7004294cb014804"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -44,10 +44,10 @@
   <x:sheetData>
     <x:row r="2">
       <x:c r="B2" s="1" t="n">
-        <x:v>45957.63053779009340</x:v>
+        <x:v>45959.40951484410460</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>45957.63065353083210</x:v>
+        <x:v>45959.40963058484330</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetrowvalues_dt.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_dt.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Ra7004294cb014804"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rbde07b5dc0084be3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -44,10 +44,10 @@
   <x:sheetData>
     <x:row r="2">
       <x:c r="B2" s="1" t="n">
-        <x:v>45959.40951484410460</x:v>
+        <x:v>45965.47029995226320</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>45959.40963058484330</x:v>
+        <x:v>45965.47041569300190</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
